--- a/whatcms_output.xlsx
+++ b/whatcms_output.xlsx
@@ -814,11 +814,31 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=bqlens.com</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WordPress</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>WooCommerce</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>jsDelivr</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -838,37 +858,13 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=ciao.hk</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>WordPress</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Cloudflare</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Elementor</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
@@ -982,12 +978,32 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=bugs-stop.com</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WordPress</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>WooCommerce</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Apache HTTP Server</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1006,33 +1022,13 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=swimava.com</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>WordPress</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Elementor</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">

--- a/whatcms_output.xlsx
+++ b/whatcms_output.xlsx
@@ -814,31 +814,11 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=bqlens.com</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>WordPress</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>jsDelivr</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -858,13 +838,37 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=ciao.hk</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WordPress</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>WooCommerce</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cloudflare</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Elementor</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
@@ -978,32 +982,12 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=bugs-stop.com</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>WordPress</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Apache HTTP Server</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1022,13 +1006,33 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=swimava.com</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WordPress</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>WooCommerce</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Elementor</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -1142,37 +1146,13 @@
           <t>https://whatcms.org/API/Tech?key=wmbjxyw7tkkzlcwbtceaq8sshgrz84q5snnu612z7wtsv9a5liwitfyb4w5rpivhq0plm9&amp;url=feetcare.sg</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>WordPress</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MySQL</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Nginx</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Elementor</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
